--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Building large models 1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Building large models 1.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1915,12 +1915,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2637,12 +2637,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3693,12 +3693,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4753,12 +4753,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4867,12 +4867,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4981,12 +4981,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5437,12 +5437,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5665,12 +5665,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5779,12 +5779,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6045,12 +6045,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6121,12 +6121,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6729,12 +6729,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6767,12 +6767,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6843,12 +6843,12 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6919,12 +6919,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6995,12 +6995,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7375,12 +7375,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7413,12 +7413,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7679,12 +7679,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8135,12 +8135,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8211,12 +8211,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8249,12 +8249,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8325,12 +8325,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8629,12 +8629,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8853,12 +8853,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8929,12 +8929,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9081,12 +9081,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9233,12 +9233,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9347,12 +9347,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9461,12 +9461,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
